--- a/weather/weather.xlsx
+++ b/weather/weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>日期</t>
   </si>
@@ -31,7 +31,7 @@
     <t>小雨转阴</t>
   </si>
   <si>
-    <t>14-8</t>
+    <t>15-7</t>
   </si>
   <si>
     <t>9日（明天）</t>
@@ -40,7 +40,7 @@
     <t>多云</t>
   </si>
   <si>
-    <t>15-7</t>
+    <t>16-8</t>
   </si>
   <si>
     <t>10日（后天）</t>
@@ -70,16 +70,13 @@
     <t>13日（周四）</t>
   </si>
   <si>
-    <t>20-12</t>
+    <t>阴转多云</t>
+  </si>
+  <si>
+    <t>22-11</t>
   </si>
   <si>
     <t>14日（周五）</t>
-  </si>
-  <si>
-    <t>晴转多云</t>
-  </si>
-  <si>
-    <t>22-10</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -493,21 +490,21 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
